--- a/data/trans_orig/P80_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P80_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>540500</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>531517</v>
+        <v>530467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>545547</v>
+        <v>545420</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9836232079286473</v>
+        <v>0.9836232079286475</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9672748182482223</v>
+        <v>0.9653655367499242</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9928074827767591</v>
+        <v>0.9925774927101798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>673</v>
@@ -762,19 +762,19 @@
         <v>478675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>471661</v>
+        <v>472194</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>483062</v>
+        <v>482534</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.981586342746168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9672027536176755</v>
+        <v>0.9682944476319056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.990580475752453</v>
+        <v>0.9894992165855229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1218</v>
@@ -783,19 +783,19 @@
         <v>1019175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1009602</v>
+        <v>1009021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1025859</v>
+        <v>1026718</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9826655025950561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9734350973491508</v>
+        <v>0.9728749055850361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9891092466766769</v>
+        <v>0.9899376898746478</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5021</v>
+        <v>5836</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.00178183673730548</v>
+        <v>0.001781836737305481</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009136938540538131</v>
+        <v>0.01062133045323252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>4671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1552</v>
+        <v>2195</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9847</v>
+        <v>10755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009578917228537926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003182603310086852</v>
+        <v>0.004501965255104409</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02019265328752335</v>
+        <v>0.02205498554423108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>5650</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2534</v>
+        <v>2321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11128</v>
+        <v>11979</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.005447914216131792</v>
+        <v>0.005447914216131793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002443508642602368</v>
+        <v>0.002238204402090212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01072932371805553</v>
+        <v>0.01154942496594664</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12740</v>
+        <v>15544</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.00748787484991816</v>
+        <v>0.007487874849918162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001231066044298656</v>
+        <v>0.001208878185584332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02318501699060172</v>
+        <v>0.02828759686827509</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>2528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6789</v>
+        <v>7172</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005184604424145809</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001165857280631604</v>
+        <v>0.001258578586047309</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01392261158849919</v>
+        <v>0.01470676889247252</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>6643</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2737</v>
+        <v>2542</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16271</v>
+        <v>15875</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006404909521412747</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002639216165078799</v>
+        <v>0.002450830542751125</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01568798660106825</v>
+        <v>0.01530673078764538</v>
       </c>
     </row>
     <row r="7">
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8123</v>
+        <v>10119</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.002591854451797724</v>
+        <v>0.002591854451797725</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01478282042727711</v>
+        <v>0.01841447416483754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3873</v>
+        <v>3543</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001419874420204447</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007941070402179251</v>
+        <v>0.007265173225807299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7961</v>
+        <v>8134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002040805940205519</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007675744326941128</v>
+        <v>0.007843017327061035</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>2481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6809</v>
+        <v>7417</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004515226032331138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.000917227468013698</v>
+        <v>0.0009103652001178759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01239158153188857</v>
+        <v>0.01349687000269077</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5467</v>
+        <v>5469</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00223026118094388</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01120990630964743</v>
+        <v>0.01121574457390356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1067,19 +1067,19 @@
         <v>3569</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9252</v>
+        <v>9032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003440867727193718</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001049878668892307</v>
+        <v>0.001063894846098765</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008921011534760961</v>
+        <v>0.008708165575597837</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>473251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>465016</v>
+        <v>465026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>477656</v>
+        <v>477890</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9828917188749972</v>
+        <v>0.9828917188749973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9657884866037005</v>
+        <v>0.9658107110495511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9920403927868566</v>
+        <v>0.9925276505344542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>577</v>
@@ -1192,19 +1192,19 @@
         <v>411243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>402920</v>
+        <v>402045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>416729</v>
+        <v>416700</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9728913358536017</v>
+        <v>0.9728913358536015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9532017072198115</v>
+        <v>0.9511321836705526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9858699191249122</v>
+        <v>0.985800758056356</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1048</v>
@@ -1213,19 +1213,19 @@
         <v>884494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>873719</v>
+        <v>873333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>892310</v>
+        <v>892585</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9782166171393969</v>
+        <v>0.9782166171393968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.966300336088773</v>
+        <v>0.9658735411902948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9868614784306877</v>
+        <v>0.9871654533041427</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>4556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1706</v>
+        <v>1788</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10050</v>
+        <v>10827</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.00946215812387277</v>
+        <v>0.009462158123872771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003543700936278253</v>
+        <v>0.003713085160820883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02087298826005448</v>
+        <v>0.02248563208478451</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1263,19 +1263,19 @@
         <v>3895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1418</v>
+        <v>778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10417</v>
+        <v>10335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009213557839735299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003354649353759972</v>
+        <v>0.001840087555645057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02464390104692451</v>
+        <v>0.02444923821060112</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1284,19 +1284,19 @@
         <v>8451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4156</v>
+        <v>4209</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16321</v>
+        <v>16618</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009345939413313862</v>
+        <v>0.00934593941331386</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004595886613255459</v>
+        <v>0.004655475200590329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0180498820923144</v>
+        <v>0.01837939509750187</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5653</v>
+        <v>5837</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002311043420316169</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01174139833186608</v>
+        <v>0.01212212101662512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1334,19 +1334,19 @@
         <v>2246</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5988</v>
+        <v>6261</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005314279688974527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001451990266155768</v>
+        <v>0.001438870867140964</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01416561661857254</v>
+        <v>0.01481067277041192</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1355,19 +1355,19 @@
         <v>3359</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1108</v>
+        <v>844</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9288</v>
+        <v>8220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003715033153707705</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001225131515383723</v>
+        <v>0.0009331009418419175</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01027265061232199</v>
+        <v>0.009090946236545553</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9005</v>
+        <v>8978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005335079580813873</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0187024108314808</v>
+        <v>0.01864682590051052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3530</v>
+        <v>3579</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001664139723688952</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008350213566136744</v>
+        <v>0.008467861110975961</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1426,19 +1426,19 @@
         <v>3272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10682</v>
+        <v>10056</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.003618943582761473</v>
+        <v>0.003618943582761472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0007773343752418781</v>
+        <v>0.0007438968541785253</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01181363710493477</v>
+        <v>0.01112197344175842</v>
       </c>
     </row>
     <row r="14">
@@ -1468,19 +1468,19 @@
         <v>4615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1440</v>
+        <v>1410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12438</v>
+        <v>12670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01091668689399966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003406088848123819</v>
+        <v>0.003336351093094962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02942391207542041</v>
+        <v>0.02997344295718152</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1489,19 +1489,19 @@
         <v>4615</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12421</v>
+        <v>12513</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.005103466710820087</v>
+        <v>0.005103466710820086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00152890061866037</v>
+        <v>0.001514683592723158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01373667615123492</v>
+        <v>0.01383944271878936</v>
       </c>
     </row>
     <row r="15">
@@ -1593,7 +1593,7 @@
         <v>470510</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>466033</v>
+        <v>465980</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>471612</v>
@@ -1602,7 +1602,7 @@
         <v>0.9976636767179972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9881703774840352</v>
+        <v>0.9880579851818306</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1614,19 +1614,19 @@
         <v>184020</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>178216</v>
+        <v>179354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186754</v>
+        <v>186767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9814568849901605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9504989371417507</v>
+        <v>0.9565711464187582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9960355763848069</v>
+        <v>0.9961070655910912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>772</v>
@@ -1635,19 +1635,19 @@
         <v>654530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>648152</v>
+        <v>648486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>657315</v>
+        <v>657639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9930533172072333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9833758958026986</v>
+        <v>0.9838831503981619</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9972784327669435</v>
+        <v>0.9977701014211795</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>2769</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9145</v>
+        <v>7424</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01477030259154535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003747857022932687</v>
+        <v>0.003764979615186573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04877589148314977</v>
+        <v>0.0395972480314051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1698,19 +1698,19 @@
         <v>2769</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9401</v>
+        <v>7646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00420172025243144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001090290536209593</v>
+        <v>0.00106920565634557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01426284721474897</v>
+        <v>0.01160083547124763</v>
       </c>
     </row>
     <row r="18">
@@ -1730,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5579</v>
+        <v>5632</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.002336323282002842</v>
+        <v>0.002336323282002841</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01182962251596488</v>
+        <v>0.01194201481816952</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3936</v>
+        <v>3927</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.003772812418294293</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02099493444064095</v>
+        <v>0.02094493501843161</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5856</v>
+        <v>6267</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002744962540335196</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008884522817035665</v>
+        <v>0.009507574707590503</v>
       </c>
     </row>
     <row r="19">
@@ -1967,19 +1967,19 @@
         <v>1097648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1079949</v>
+        <v>1080992</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1109179</v>
+        <v>1108766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.96978823124837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9541508318767646</v>
+        <v>0.9550725289953469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9799758561353182</v>
+        <v>0.9796114286714019</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1211</v>
@@ -1988,19 +1988,19 @@
         <v>846285</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>838508</v>
+        <v>837962</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>851696</v>
+        <v>851446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9855694793847637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9765129776590771</v>
+        <v>0.9758769418096188</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9918707106496067</v>
+        <v>0.9915804791836152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2303</v>
@@ -2009,19 +2009,19 @@
         <v>1943933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1927044</v>
+        <v>1924177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1958189</v>
+        <v>1956926</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9765959929274569</v>
+        <v>0.976595992927457</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9681113503419011</v>
+        <v>0.9666708400454251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9837579916145354</v>
+        <v>0.9831235299912147</v>
       </c>
     </row>
     <row r="23">
@@ -2038,19 +2038,19 @@
         <v>19931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10834</v>
+        <v>11456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34252</v>
+        <v>34996</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01760938911408467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009571794277119293</v>
+        <v>0.01012182676540306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03026177960145098</v>
+        <v>0.03091988461406227</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2059,19 +2059,19 @@
         <v>3619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1297</v>
+        <v>1233</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8375</v>
+        <v>7640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004214768222488088</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001511018491625705</v>
+        <v>0.001435885874942876</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009752897530758106</v>
+        <v>0.008897472721342319</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2080,19 +2080,19 @@
         <v>23550</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14374</v>
+        <v>14913</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36938</v>
+        <v>37645</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01183117778228142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007221285642290179</v>
+        <v>0.007492121743472197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01855705810126383</v>
+        <v>0.01891230138159412</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>8492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3382</v>
+        <v>3441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17350</v>
+        <v>18113</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007503057563486136</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002988340303963004</v>
+        <v>0.003040376422208557</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01532898186774331</v>
+        <v>0.01600278124495552</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2130,19 +2130,19 @@
         <v>1971</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5543</v>
+        <v>5299</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.002294878032743545</v>
+        <v>0.002294878032743546</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0006540319481597202</v>
+        <v>0.0006511635872078404</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.006455596294139705</v>
+        <v>0.006170794924419337</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -2151,19 +2151,19 @@
         <v>10463</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5046</v>
+        <v>5021</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19898</v>
+        <v>18809</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.005256337613279653</v>
+        <v>0.005256337613279652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002534972166435921</v>
+        <v>0.00252269061957521</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009996296468441817</v>
+        <v>0.009449421011154042</v>
       </c>
     </row>
     <row r="25">
@@ -2180,19 +2180,19 @@
         <v>4402</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12983</v>
+        <v>14463</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003889439852220438</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0008705977363684424</v>
+        <v>0.000866847480343532</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01147072006713517</v>
+        <v>0.01277866160342817</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7776</v>
+        <v>7598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0017548204397099</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009055580376288648</v>
+        <v>0.008848050279557693</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2222,19 +2222,19 @@
         <v>5909</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1925</v>
+        <v>1509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16841</v>
+        <v>16122</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002968601391895384</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009672574710561017</v>
+        <v>0.0007581269186018186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008460369343224057</v>
+        <v>0.00809941421151451</v>
       </c>
     </row>
     <row r="26">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6915</v>
+        <v>7523</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001209882221838768</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006109873546404428</v>
+        <v>0.006646408427944484</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2272,19 +2272,19 @@
         <v>5295</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2310</v>
+        <v>2020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10907</v>
+        <v>11034</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.006166053920294731</v>
+        <v>0.00616605392029473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002690537009806701</v>
+        <v>0.002352828183501629</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0127017300384399</v>
+        <v>0.0128499275906358</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2293,19 +2293,19 @@
         <v>6664</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2817</v>
+        <v>2772</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13062</v>
+        <v>13160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003347890285086561</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00141515928666872</v>
+        <v>0.001392742982109855</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006562154848167484</v>
+        <v>0.006611274163901115</v>
       </c>
     </row>
     <row r="27">
@@ -2397,19 +2397,19 @@
         <v>549313</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>534652</v>
+        <v>536659</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>557737</v>
+        <v>557909</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9671622136706192</v>
+        <v>0.9671622136706191</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9413487983376975</v>
+        <v>0.9448820691401463</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9819940337356082</v>
+        <v>0.9822964779782889</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1271</v>
@@ -2418,19 +2418,19 @@
         <v>817230</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>809302</v>
+        <v>810013</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>822438</v>
+        <v>821667</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9849355420093734</v>
+        <v>0.9849355420093733</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9753813302138379</v>
+        <v>0.976237886716754</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9912126716454867</v>
+        <v>0.9902839120187307</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1804</v>
@@ -2439,19 +2439,19 @@
         <v>1366543</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1350697</v>
+        <v>1351484</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1377048</v>
+        <v>1377257</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9777132067519139</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9663763500002782</v>
+        <v>0.9669393856574245</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9852295319180355</v>
+        <v>0.9853785105801544</v>
       </c>
     </row>
     <row r="29">
@@ -2468,19 +2468,19 @@
         <v>13703</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7106</v>
+        <v>6459</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27031</v>
+        <v>27436</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02412733949958041</v>
+        <v>0.0241273394995804</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01251072772381059</v>
+        <v>0.01137266309843161</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04759365445883757</v>
+        <v>0.04830542253261878</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2489,19 +2489,19 @@
         <v>3240</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>758</v>
+        <v>1158</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9376</v>
+        <v>7984</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.00390469032332316</v>
+        <v>0.003904690323323159</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0009133155647356353</v>
+        <v>0.001395932671604012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01130060414812052</v>
+        <v>0.009622203558646613</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -2510,19 +2510,19 @@
         <v>16943</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9548</v>
+        <v>9116</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30781</v>
+        <v>28526</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01212232684931069</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006830967373297137</v>
+        <v>0.006521870452398766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02202246497370949</v>
+        <v>0.0204095435849055</v>
       </c>
     </row>
     <row r="30">
@@ -2542,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15858</v>
+        <v>14787</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.00673789256728732</v>
+        <v>0.006737892567287319</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02792103162792518</v>
+        <v>0.02603579598374168</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2560,19 +2560,19 @@
         <v>4697</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2041</v>
+        <v>1880</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8950</v>
+        <v>9415</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.005661274205902864</v>
+        <v>0.005661274205902863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002459770699147684</v>
+        <v>0.002265792807883409</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01078677579823422</v>
+        <v>0.01134671254762279</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2581,19 +2581,19 @@
         <v>8524</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3871</v>
+        <v>3801</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18773</v>
+        <v>20613</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006098766756653782</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002769664352718105</v>
+        <v>0.002719773068397038</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01343173667293313</v>
+        <v>0.01474793080312778</v>
       </c>
     </row>
     <row r="31">
@@ -2626,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3875</v>
+        <v>3156</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.0008192727231487319</v>
+        <v>0.0008192727231487318</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004670088785013393</v>
+        <v>0.003803820450762005</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3475</v>
+        <v>3425</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0004863546471927546</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.002486300923651972</v>
+        <v>0.002450286698179776</v>
       </c>
     </row>
     <row r="32">
@@ -2676,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4582</v>
+        <v>5928</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.001972554262513038</v>
+        <v>0.001972554262513037</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008067468260187272</v>
+        <v>0.01043777872792419</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2694,19 +2694,19 @@
         <v>3882</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1440</v>
+        <v>1239</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9588</v>
+        <v>9139</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00467922073825195</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00173567091413084</v>
+        <v>0.001492983469698545</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01155613230644655</v>
+        <v>0.01101386692080566</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2715,19 +2715,19 @@
         <v>5003</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1840</v>
+        <v>1918</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11220</v>
+        <v>10952</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003579344994928858</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001316351549394866</v>
+        <v>0.001372484195010184</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008027588194004736</v>
+        <v>0.007835423778733128</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>230634</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>219801</v>
+        <v>218190</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>235566</v>
+        <v>235522</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9722029653123933</v>
+        <v>0.9722029653123931</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9265375916427339</v>
+        <v>0.9197462621861895</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9929952424503236</v>
+        <v>0.9928097147493058</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1154</v>
@@ -2840,19 +2840,19 @@
         <v>841207</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>837068</v>
+        <v>838123</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>842668</v>
+        <v>842670</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9975354691197144</v>
+        <v>0.9975354691197146</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9926282193834521</v>
+        <v>0.9938786980272246</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.999267863611485</v>
+        <v>0.9992703223287603</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1263</v>
@@ -2861,19 +2861,19 @@
         <v>1071840</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1056750</v>
+        <v>1059281</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1077106</v>
+        <v>1077448</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9919736936182261</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9780075662050937</v>
+        <v>0.9803500961625662</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9968471316088835</v>
+        <v>0.9971636403483525</v>
       </c>
     </row>
     <row r="35">
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15252</v>
+        <v>13646</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0128933450941353</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06429388335568878</v>
+        <v>0.05752110056418322</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2914,16 +2914,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3455</v>
+        <v>3530</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.000729926992004433</v>
+        <v>0.0007299269920044331</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.004097410935199033</v>
+        <v>0.004185691508528798</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16404</v>
+        <v>17598</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.00340041709947016</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0151813188470514</v>
+        <v>0.01628649366793383</v>
       </c>
     </row>
     <row r="36">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11858</v>
+        <v>11701</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01490368959347156</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04998647249676717</v>
+        <v>0.04932489442243596</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13410</v>
+        <v>11617</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003272119340955095</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01241118011859514</v>
+        <v>0.01075094994769417</v>
       </c>
     </row>
     <row r="37">
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3803</v>
+        <v>3797</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.0008984984833812963</v>
+        <v>0.0008984984833812964</v>
       </c>
       <c r="O37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.00451012600938629</v>
+        <v>0.004502156550737638</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3659</v>
+        <v>4602</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0007012322798112354</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.003386763272526129</v>
+        <v>0.004259024659742479</v>
       </c>
     </row>
     <row r="38">
@@ -3103,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4273</v>
+        <v>3509</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.0008361054048998086</v>
+        <v>0.0008361054048998087</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.005067059221773883</v>
+        <v>0.004160675621817422</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3792</v>
+        <v>3647</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0006525376615372411</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.003509548145197015</v>
+        <v>0.003374903349150984</v>
       </c>
     </row>
     <row r="39">
@@ -3225,19 +3225,19 @@
         <v>3361855</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3335644</v>
+        <v>3337318</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3380015</v>
+        <v>3381207</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.9773876530178452</v>
+        <v>0.9773876530178455</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.9697674602572817</v>
+        <v>0.9702540401647796</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9826672007295244</v>
+        <v>0.9830139077270957</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5171</v>
@@ -3246,19 +3246,19 @@
         <v>3578661</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3562886</v>
+        <v>3564375</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3590974</v>
+        <v>3591433</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.9859805983945888</v>
+        <v>0.985980598394589</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9816342921857503</v>
+        <v>0.9820446184435463</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9893730342537004</v>
+        <v>0.9894994267856388</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8408</v>
@@ -3267,19 +3267,19 @@
         <v>6940515</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6911903</v>
+        <v>6912060</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6962390</v>
+        <v>6964223</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9817995494297653</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9777522186649882</v>
+        <v>0.977774288180822</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9848939304182968</v>
+        <v>0.9851533009263366</v>
       </c>
     </row>
     <row r="41">
@@ -3296,19 +3296,19 @@
         <v>42228</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29044</v>
+        <v>28572</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64012</v>
+        <v>60942</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01227695212633364</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008444041353657866</v>
+        <v>0.008306608448792878</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01861021656248896</v>
+        <v>0.01771747979932214</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>23</v>
@@ -3317,19 +3317,19 @@
         <v>18810</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>11498</v>
+        <v>12093</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28460</v>
+        <v>29295</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.005182379997232545</v>
+        <v>0.005182379997232546</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00316787418424542</v>
+        <v>0.00333171317005057</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.007841079372123659</v>
+        <v>0.008071365533034291</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>56</v>
@@ -3338,19 +3338,19 @@
         <v>61038</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>44886</v>
+        <v>45626</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>82733</v>
+        <v>85461</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008634369059856548</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006349540225991865</v>
+        <v>0.006454160210167678</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01170329216361764</v>
+        <v>0.01208924117733826</v>
       </c>
     </row>
     <row r="42">
@@ -3367,19 +3367,19 @@
         <v>22184</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13558</v>
+        <v>12173</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>37344</v>
+        <v>36006</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.006449491564792077</v>
+        <v>0.006449491564792078</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.003941714837526164</v>
+        <v>0.003538906990249101</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01085709403589007</v>
+        <v>0.01046801647367626</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>18</v>
@@ -3388,19 +3388,19 @@
         <v>12150</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>7420</v>
+        <v>6965</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>19004</v>
+        <v>18754</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.003347507211189974</v>
+        <v>0.003347507211189976</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.002044278353333664</v>
+        <v>0.00191909538432338</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.005235808839435549</v>
+        <v>0.005167061750409809</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>34</v>
@@ -3409,19 +3409,19 @@
         <v>34334</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>23597</v>
+        <v>22742</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>49134</v>
+        <v>49108</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.00485683234964931</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003337971519301723</v>
+        <v>0.003217092332129795</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.00695043660517324</v>
+        <v>0.006946783504927104</v>
       </c>
     </row>
     <row r="43">
@@ -3438,19 +3438,19 @@
         <v>8395</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2914</v>
+        <v>2989</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>18827</v>
+        <v>18743</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.002440735595121876</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0008471513938232448</v>
+        <v>0.0008691200531990091</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.00547363343534801</v>
+        <v>0.005449195258146991</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>5</v>
@@ -3459,19 +3459,19 @@
         <v>4340</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>10643</v>
+        <v>9981</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001195778447363645</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0003852927485744611</v>
+        <v>0.0003844086780886891</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.00293240314180042</v>
+        <v>0.002749960143283957</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>11</v>
@@ -3480,19 +3480,19 @@
         <v>12735</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>6451</v>
+        <v>6551</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>24143</v>
+        <v>23412</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.001801534281442607</v>
+        <v>0.001801534281442606</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0009125361678065535</v>
+        <v>0.0009267436114307284</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.003415241610275027</v>
+        <v>0.003311814335106455</v>
       </c>
     </row>
     <row r="44">
@@ -3509,19 +3509,19 @@
         <v>4971</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11773</v>
+        <v>12664</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.001445167695907105</v>
+        <v>0.001445167695907106</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0005404298717628891</v>
+        <v>0.0005420054345267027</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003422755839145153</v>
+        <v>0.003681746988472583</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -3530,19 +3530,19 @@
         <v>15584</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9336</v>
+        <v>9383</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>26150</v>
+        <v>26775</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.004293735949624928</v>
+        <v>0.004293735949624927</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002572273100108673</v>
+        <v>0.002585158556572068</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.007204804053335775</v>
+        <v>0.007377050014424337</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>22</v>
@@ -3551,19 +3551,19 @@
         <v>20555</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>13432</v>
+        <v>13254</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>31875</v>
+        <v>32475</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.002907714879286219</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.001900071219243319</v>
+        <v>0.001874851372791193</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.004508950031864691</v>
+        <v>0.004593946724821767</v>
       </c>
     </row>
     <row r="45">
